--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2914812907150932, 0.26092000021777906, 0.22202665153633735, 0.2110026204074901, 0.45398322334361524, 0.23302149988310503, 0.2560351723791837, 0.18688390274123662, 0.14701871252361914, 0.18696948821120724, 0.18656123264201557, 0.18291791082120903, 0.19599752324979255, 0.1974663976038935, 0.17256564393566998, 0.16207684849081158, 0.1605062838965109, 0.17369486475797963, 0.17287800225442282]</t>
+    <t>[1.0, 0.2234867022365352, 0.2172810577187567, 0.22470527548345198, 0.1807468192024304, 0.43315426219758657, 0.15416538919348818, 0.1918917660781605, 0.15586654148211257, 0.15558596961612492, 0.17621703721857068, 0.14127464040343926, 0.14492838670492644, 0.1541247001400519, 0.20123628523550954, 0.13041877917144956, 0.1383669024519305, 0.13308786916572388, 0.1490422300069606, 0.1417354568920585]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.3202702857878455, 0.2712375117199265, 0.23105405910712778, 0.24627562294887398, 0.33380320512986333, 0.19516080211203352, 0.21044477236579429, 0.15697513766180268, 0.13274579997164299, 0.1559705546967117, 0.1547566796240514, 0.15393624813074946, 0.1445356178017622, 0.20585928729841005, 0.17180024540096273, 0.1517150433957696, 0.166482702206787, 0.1733166508038007, 0.16093672146961815]</t>
+    <t>[1.0, 0.27058448663998214, 0.23717296025651552, 0.21254927782762872, 0.23408012621294352, 0.3183038808926737, 0.17249585387321204, 0.1458458622421585, 0.11797377222555902, 0.11979842423601327, 0.13807815108421057, 0.1237746162416953, 0.12624557104638925, 0.11011414679294489, 0.16721991662563385, 0.10719416027306998, 0.11261688152933319, 0.13592968102345418, 0.13520540254759933, 0.13016966520985004]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.0030509032690374236, -0.02022154079803692, -0.038662041413097974, -0.052723473264746516, 0.3324274880435294, 0.0019122013979398704, 0.035972654613499806, -0.009691623847001118, -0.043699358679717526, -0.040289987379811605, -0.041990249187392234, -0.00961580961473966, 0.0024038732618662183, 0.02216000555938055, -0.015883014027035108, -0.030376262656352074, -0.01422940284395771, -0.030067662423678282, -0.01683654139776651]</t>
+    <t>[1.0, 0.009800098672221034, -0.01113181124804023, -0.01559270932403285, -0.04703880614424163, 0.3610349224913171, 0.007585071214567595, 0.01710742618962009, -0.014087888964287788, -0.044030782202712365, -0.042260052597155415, -0.04526943186985814, -0.02412474422429682, -0.008491266206800558, 0.015773343561695095, -0.02009750611840592, -0.04669707803652939, -0.017175291806260533, -0.023442997254830046, -0.010455670554982286]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.0034520740464585612, -0.020415288098801776, -0.03771021346683173, -0.05307290849185561, 0.3329332254586408, 0.001974190010471875, 0.03516175650508935, -0.009366950113707766, -0.043866800398444296, -0.04032037332794623, -0.04246427656615455, -0.009803018256398273, 0.002455552588576124, 0.02194670065395235, -0.016913548549884472, -0.031303037311896396, -0.015286673720274925, -0.03029790906115299, -0.017375639140293105]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03996640751065263, 0.011466636625873262, 0.00802417288529159, -0.03603129864679356, 0.23302027389296048, -0.006076336095812933, 0.022577902729887647, -0.022042599724704612, -0.05032300174458967, -0.034983813365268825, -0.045108347516958955, -0.020756557136788503, -0.008586217347643942, 0.01946002372611996, -0.011390244912763157, -0.03536396712327789, -0.022984673336963978, -0.021317482107866274, -0.02011144444571112]</t>
+    <t>[1.0, 0.009534978884775292, -0.01171852898527423, -0.015695598660415283, -0.048254005867216884, 0.36063381513269327, 0.007118110659867282, 0.015843386456236997, -0.014073954113537082, -0.04478499240823882, -0.04226127077380087, -0.045901432876203206, -0.02419036096886461, -0.008574949564069703, 0.015756502324402375, -0.02037624246782625, -0.04760399244505802, -0.017888415808653125, -0.023994971953874393, -0.01047201053134273]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.04252618163271713, 0.009361987857899205, 0.03554972031141428, -0.018432362910407424, 0.2633848992421267, -0.0038824135871978176, 0.009216933163390558, -0.025987661653650622, -0.0452950779510569, -0.03622721861242116, -0.04628307394029194, -0.03569159338141229, -0.022218979549180496, 0.014290349540840715, -0.018584960992281463, -0.04466796030942388, -0.02568730662106427, -0.01751024810194324, -0.016425809126267565]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002289611392375032</v>
+        <v>-0.02935319036800062</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8271785388416928</v>
+        <v>0.8148737245007158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.33615690253025</v>
+        <v>3.716600370622494</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.899135446685879</v>
+        <v>0.9504950495049505</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5557635018384144</v>
+        <v>-0.5027905522458885</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7961118740063521</v>
+        <v>0.7890286697769049</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4.088603609273277</v>
+        <v>2.815528618716</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4941965824011549</v>
+        <v>0.4880421130553186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7972885399031959</v>
+        <v>0.7499760826518644</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.447532877435789</v>
+        <v>2.318611603655023</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005774339871057947</v>
+        <v>-0.008228157979410178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0409875451045271</v>
+        <v>0.02440120630422643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08838953214719292</v>
+        <v>0.0558718297427872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9082342203346515</v>
+        <v>0.9379161340050154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005552486346230828</v>
+        <v>0.0001541063721840237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0408483729082158</v>
+        <v>0.02517557180930631</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09888690436505052</v>
+        <v>0.06406123341689407</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9083500676710241</v>
+        <v>0.936541274588946</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02090340650494344</v>
+        <v>-0.01354160067825516</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002388926979144996</v>
+        <v>-0.02070492103214357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.03734933883024575</v>
+        <v>0.02270486645974969</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1094880274470461</v>
+        <v>0.07090128650642774</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9091213877207215</v>
+        <v>0.9364212174099417</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.04402215500150906</v>
+        <v>-0.02662103703004695</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7929683102293414</v>
+        <v>0.7911148618580267</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2234867022365352, 0.2172810577187567, 0.22470527548345198, 0.1807468192024304, 0.43315426219758657, 0.15416538919348818, 0.1918917660781605, 0.15586654148211257, 0.15558596961612492, 0.17621703721857068, 0.14127464040343926, 0.14492838670492644, 0.1541247001400519, 0.20123628523550954, 0.13041877917144956, 0.1383669024519305, 0.13308786916572388, 0.1490422300069606, 0.1417354568920585]</t>
+    <t>[0.9999999999999999, -0.0029305740574956055, -0.06430183407658344, -0.09678776685102415, -0.11332665377180157, 0.060223909508484656, 0.023134437068713504, 0.027527342155996462, 0.021708550479818258, 0.0037143385741970026, -0.037151165649365075, -0.04516230383121428, -0.03225842474746748, 0.028619202486163828, 0.05508668071366697, 0.03165893787633444, -0.03250348169091397, -0.04772375330653062, -0.0384930840249508, 0.009568695150526942]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.27058448663998214, 0.23717296025651552, 0.21254927782762872, 0.23408012621294352, 0.3183038808926737, 0.17249585387321204, 0.1458458622421585, 0.11797377222555902, 0.11979842423601327, 0.13807815108421057, 0.1237746162416953, 0.12624557104638925, 0.11011414679294489, 0.16721991662563385, 0.10719416027306998, 0.11261688152933319, 0.13592968102345418, 0.13520540254759933, 0.13016966520985004]</t>
+    <t>[0.9999999999999998, 0.045570465761380005, 0.012460174431676737, -0.017206711107716557, 0.03238529985621976, 0.011684009901597903, -0.002676436387977331, 0.04309004426792053, -0.010217509357506123, -0.009565570123857064, -0.0028184498406111738, -0.022414792035762885, -0.013905355321581497, 0.0038708339911607548, -0.004739660579801487, 0.006849143917652729, -0.03921815225943939, -0.031256743219317415, -0.030111662746606812, 0.00072065700403912]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.009800098672221034, -0.01113181124804023, -0.01559270932403285, -0.04703880614424163, 0.3610349224913171, 0.007585071214567595, 0.01710742618962009, -0.014087888964287788, -0.044030782202712365, -0.042260052597155415, -0.04526943186985814, -0.02412474422429682, -0.008491266206800558, 0.015773343561695095, -0.02009750611840592, -0.04669707803652939, -0.017175291806260533, -0.023442997254830046, -0.010455670554982286]</t>
+    <t>[1.0, 0.0053512265578218865, -0.047965270758115824, -0.09624917996587308, -0.12111843580433812, 0.11133897598606488, 0.028929559458363084, 0.02794793613062658, 0.030869708830733384, 0.0057766687575217576, -0.06406924911461513, -0.045401848281271855, -0.030071506666856523, 0.0364771871233387, 0.032310908958978965, 0.024703091277189164, -0.04091805459745477, -0.059298038338594115, -0.04759210432023713, 0.012685546856744022]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.009534978884775292, -0.01171852898527423, -0.015695598660415283, -0.048254005867216884, 0.36063381513269327, 0.007118110659867282, 0.015843386456236997, -0.014073954113537082, -0.04478499240823882, -0.04226127077380087, -0.045901432876203206, -0.02419036096886461, -0.008574949564069703, 0.015756502324402375, -0.02037624246782625, -0.04760399244505802, -0.017888415808653125, -0.023994971953874393, -0.01047201053134273]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.04252618163271713, 0.009361987857899205, 0.03554972031141428, -0.018432362910407424, 0.2633848992421267, -0.0038824135871978176, 0.009216933163390558, -0.025987661653650622, -0.0452950779510569, -0.03622721861242116, -0.04628307394029194, -0.03569159338141229, -0.022218979549180496, 0.014290349540840715, -0.018584960992281463, -0.04466796030942388, -0.02568730662106427, -0.01751024810194324, -0.016425809126267565]</t>
+    <t>[0.9999999999999998, -0.0006420118170699893, -0.04414728998320402, -0.09554911476183414, -0.11878321499340518, 0.11447786515898213, 0.0264906220059799, 0.029747048250579198, 0.029623072948371954, 0.008194965448504015, -0.06251944152304799, -0.043928346907034316, -0.02838457633446304, 0.036959261044889564, 0.03444569340507933, 0.024917525691859312, -0.03859896143881191, -0.05734226218217965, -0.0451869741055887, 0.013668181538868819]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, -0.002851912227737137, -0.06427066988832664, -0.09673299731561498, -0.1133420878520739, 0.059996615575479764, 0.023155539201167287, 0.027443463001512357, 0.021780452573349072, 0.003759274871357114, -0.03717623372531297, -0.04509679349928532, -0.03244773821903248, 0.02867704038661088, 0.05501713893550652, 0.03171998396605875, -0.032465726486331455, -0.04779459930836689, -0.038439169918806304, 0.00941241838073797]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02935319036800062</v>
+        <v>-0.005476268475053387</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8148737245007158</v>
+        <v>0.7708829775538072</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.716600370622494</v>
+        <v>0.09883757256385761</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5027905522458885</v>
+        <v>-0.1792157409623108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7890286697769049</v>
+        <v>0.5881546956886264</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.815528618716</v>
+        <v>0.05512821606360369</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4880421130553186</v>
+        <v>0.1612931945760407</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7499760826518644</v>
+        <v>0.5596449676183822</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.318611603655023</v>
+        <v>0.05645687639108358</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.008228157979410178</v>
+        <v>9.402145416688678E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.02440120630422643</v>
+        <v>0.002485355801549447</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0558718297427872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9379161340050154</v>
+        <v>0.9774384499711841</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001541063721840237</v>
+        <v>0.0005872119705266554</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.02517557180930631</v>
+        <v>0.1108284876514284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06406123341689407</v>
+        <v>0.01473822355044238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.936541274588946</v>
+        <v>8.254491197321024E-11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.01354160067825516</v>
+        <v>-0.01473822355536685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02070492103214357</v>
+        <v>-0.005455171079608237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.02270486645974969</v>
+        <v>0.07055268146308906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07090128650642774</v>
+        <v>2.297793494844305E-07</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9364212174099417</v>
+        <v>0.2860445153941196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02662103703004695</v>
+        <v>-2.207543423280119E-07</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7911148618580267</v>
+        <v>0.7708307639700828</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, -0.0013446205585978096, -0.05780088354107659, -0.09641600225683399, -0.10912697796926385, 0.07040521269612594, 0.018260004821257038, 0.034936759686212855, 0.027909587486440374, -0.0029726217109360444, -0.039677325472499816, -0.030729542944917174, -0.022201828790490066, 0.034379864872476955, 0.035534776437740466, 0.02855871240049358, -0.017571039482304533, -0.043892644035469205, -0.04132242888863963, -0.008974841540735563]</t>
+    <t>[1.0, 0.2914812907150932, 0.26092000021777906, 0.22202665153633735, 0.2110026204074901, 0.45398322334361524, 0.23302149988310503, 0.2560351723791837, 0.18688390274123662, 0.14701871252361914, 0.18696948821120724, 0.18656123264201557, 0.18291791082120903, 0.19599752324979255, 0.1974663976038935, 0.17256564393566998, 0.16207684849081158, 0.1605062838965109, 0.17369486475797963, 0.17287800225442282]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.058685830097088366, 0.021119579057910776, 0.00016904240366722882, 0.03236742236627962, 0.0035222560905009883, -0.015407259229366577, 0.01094576686802074, -0.0036652560922084344, -0.027646133120218644, -0.021667449986832822, -0.035669430248189235, -0.0135411416098844, 0.009126723078337382, 0.0061830155207316054, 0.005655546447016648, -0.01855549974012024, -0.030923110054851922, -0.029249509112275168, -0.01293419955889447]</t>
+    <t>[1.0, 0.3202702857878455, 0.2712375117199265, 0.23105405910712778, 0.24627562294887398, 0.33380320512986333, 0.19516080211203352, 0.21044477236579429, 0.15697513766180268, 0.13274579997164299, 0.1559705546967117, 0.1547566796240514, 0.15393624813074946, 0.1445356178017622, 0.20585928729841005, 0.17180024540096273, 0.1517150433957696, 0.166482702206787, 0.1733166508038007, 0.16093672146961815]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0018276346063524785, -0.0473875626410662, -0.10177275340280648, -0.1105273530101192, 0.11713626472784401, 0.022390827099168155, 0.03459885315721027, 0.03722638969813925, -0.0020800864428081405, -0.054714084445027095, -0.030963338762016776, -0.02112363990800883, 0.03607031716642205, 0.018142398324549773, 0.02328743069188353, -0.017647247980704963, -0.0464915605978726, -0.04764993847257179, -0.0012949295953081533]</t>
+    <t>[1.0, 0.0030509032690374236, -0.02022154079803692, -0.038662041413097974, -0.052723473264746516, 0.3324274880435294, 0.0019122013979398704, 0.035972654613499806, -0.009691623847001118, -0.043699358679717526, -0.040289987379811605, -0.041990249187392234, -0.00961580961473966, 0.0024038732618662183, 0.02216000555938055, -0.015883014027035108, -0.030376262656352074, -0.01422940284395771, -0.030067662423678282, -0.01683654139776651]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.0018274061243175237, -0.04738727995751665, -0.10177287801825188, -0.11052682228876345, 0.1171370772367027, 0.02239056604643094, 0.03459858988108308, 0.03722592361621991, -0.0020800102643077803, -0.054714383076434635, -0.030963509805700028, -0.02112290907951662, 0.03607054649447164, 0.01814195339566275, 0.023287509851444402, -0.017647385590543924, -0.04649132724921116, -0.047650382568137015, -0.0012949379682940683]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.0012900551040509812, -0.057775460186906324, -0.09637548276448896, -0.10913919570151495, 0.0702399252833635, 0.018273609772994286, 0.03487436314205955, 0.02796366974047976, -0.0029355462762660814, -0.03969649291739474, -0.030680749828167708, -0.02234196370359971, 0.03442447397791546, 0.035481234801224275, 0.0286077198965698, -0.01754338671045726, -0.04394550645687796, -0.04128422036943317, -0.009087828593330098]</t>
+    <t>[1.0, 0.0034520740464585612, -0.020415288098801776, -0.03771021346683173, -0.05307290849185561, 0.3329332254586408, 0.001974190010471875, 0.03516175650508935, -0.009366950113707766, -0.043866800398444296, -0.04032037332794623, -0.04246427656615455, -0.009803018256398273, 0.002455552588576124, 0.02194670065395235, -0.016913548549884472, -0.031303037311896396, -0.015286673720274925, -0.03029790906115299, -0.017375639140293105]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.03996640751065263, 0.011466636625873262, 0.00802417288529159, -0.03603129864679356, 0.23302027389296048, -0.006076336095812933, 0.022577902729887647, -0.022042599724704612, -0.05032300174458967, -0.034983813365268825, -0.045108347516958955, -0.020756557136788503, -0.008586217347643942, 0.01946002372611996, -0.011390244912763157, -0.03536396712327789, -0.022984673336963978, -0.021317482107866274, -0.02011144444571112]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0004380242561097834</v>
+        <v>0.0002289611392375032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7750609251087532</v>
+        <v>0.8271785388416928</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1006360069791184</v>
+        <v>5.33615690253025</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1821043773742401</v>
+        <v>-0.5557635018384144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5735243240508822</v>
+        <v>0.7961118740063521</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05535703192630511</v>
+        <v>4.088603609273277</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1558734674449663</v>
+        <v>0.4941965824011549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5962148384283619</v>
+        <v>0.7972885399031959</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05942554087098043</v>
+        <v>3.447532877435789</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002391798853857511</v>
+        <v>-0.005774339871057947</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1134021054445303</v>
+        <v>0.0409875451045271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.703589293318847E-11</v>
+        <v>0.08838953214719292</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9082342203346515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002355595453453551</v>
+        <v>0.005552486346230828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1134017959720615</v>
+        <v>0.0408483729082158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.476559124640293E-11</v>
+        <v>0.09888690436505052</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9083500676710241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1.939222908958482E-11</v>
+        <v>-0.02090340650494344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0004560056352835799</v>
+        <v>-0.002388926979144996</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.07174338746073727</v>
+        <v>0.03734933883024575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>3.416834824990437E-11</v>
+        <v>0.1094880274470461</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.2870052962636865</v>
+        <v>0.9091213877207215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>2.137155289374951E-11</v>
+        <v>-0.04402215500150906</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7750224292281395</v>
+        <v>0.7929683102293414</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2914812907150932, 0.26092000021777906, 0.22202665153633735, 0.2110026204074901, 0.45398322334361524, 0.23302149988310503, 0.2560351723791837, 0.18688390274123662, 0.14701871252361914, 0.18696948821120724, 0.18656123264201557, 0.18291791082120903, 0.19599752324979255, 0.1974663976038935, 0.17256564393566998, 0.16207684849081158, 0.1605062838965109, 0.17369486475797963, 0.17287800225442282]</t>
+    <t>[1.0, 0.29148129071509393, 0.26092000021777967, 0.2220266515363381, 0.2110026204074905, 0.4539832233436147, 0.23302149988310522, 0.25603517237918366, 0.18688390274123667, 0.14701871252361925, 0.18696948821120757, 0.1865612326420157, 0.182917910821209, 0.19599752324979258, 0.19746639760389337, 0.17256564393567012, 0.16207684849081172, 0.16050628389651092, 0.17369486475797982, 0.17287800225442293]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.3202702857878455, 0.2712375117199265, 0.23105405910712778, 0.24627562294887398, 0.33380320512986333, 0.19516080211203352, 0.21044477236579429, 0.15697513766180268, 0.13274579997164299, 0.1559705546967117, 0.1547566796240514, 0.15393624813074946, 0.1445356178017622, 0.20585928729841005, 0.17180024540096273, 0.1517150433957696, 0.166482702206787, 0.1733166508038007, 0.16093672146961815]</t>
+    <t>[1.0, 0.3202702857878455, 0.27123751171992644, 0.23105405910712754, 0.2462756229488739, 0.3338032051298629, 0.19516080211203335, 0.210444772365794, 0.1569751376618026, 0.13274579997164282, 0.1559705546967116, 0.15475667962405135, 0.1539362481307494, 0.14453561780176208, 0.20585928729841002, 0.1718002454009627, 0.15171504339576952, 0.16648270220678696, 0.17331665080380043, 0.160936721469618]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.0030509032690374236, -0.02022154079803692, -0.038662041413097974, -0.052723473264746516, 0.3324274880435294, 0.0019122013979398704, 0.035972654613499806, -0.009691623847001118, -0.043699358679717526, -0.040289987379811605, -0.041990249187392234, -0.00961580961473966, 0.0024038732618662183, 0.02216000555938055, -0.015883014027035108, -0.030376262656352074, -0.01422940284395771, -0.030067662423678282, -0.01683654139776651]</t>
+    <t>[1.0, 0.003050901347849254, -0.020221541892455633, -0.03866204345261565, -0.05272347499580776, 0.3324274888978771, 0.0019121982559453393, 0.03597265180638256, -0.009691626141245312, -0.04369935970478982, -0.04028998748524386, -0.04199024918593083, -0.009615810837871072, 0.002403872729972173, 0.02216000374910503, -0.0158830143687341, -0.030376263991585318, -0.014229403409098765, -0.030067662401753036, -0.016836542449832664]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.0034520740464585612, -0.020415288098801776, -0.03771021346683173, -0.05307290849185561, 0.3329332254586408, 0.001974190010471875, 0.03516175650508935, -0.009366950113707766, -0.043866800398444296, -0.04032037332794623, -0.04246427656615455, -0.009803018256398273, 0.002455552588576124, 0.02194670065395235, -0.016913548549884472, -0.031303037311896396, -0.015286673720274925, -0.03029790906115299, -0.017375639140293105]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03996640751065263, 0.011466636625873262, 0.00802417288529159, -0.03603129864679356, 0.23302027389296048, -0.006076336095812933, 0.022577902729887647, -0.022042599724704612, -0.05032300174458967, -0.034983813365268825, -0.045108347516958955, -0.020756557136788503, -0.008586217347643942, 0.01946002372611996, -0.011390244912763157, -0.03536396712327789, -0.022984673336963978, -0.021317482107866274, -0.02011144444571112]</t>
+    <t>[1.0, 0.0034520715231955686, -0.020415288107280494, -0.0377102119626596, -0.05307290899138627, 0.33293322431802336, 0.001974193396534165, 0.03516175913067169, -0.009366948540844822, -0.04386680062632537, -0.04032037300399811, -0.04246427640240559, -0.009803019960748213, 0.0024555510494831414, 0.0219467023201955, -0.016913550599398117, -0.03130303795636131, -0.01528667499546122, -0.030297909351013445, -0.017375639589288956]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.039966418681239166, 0.011466643904198671, 0.008024178102502073, -0.03603129241560525, 0.23302027893531627, -0.006076331974561264, 0.02257790512878224, -0.02204259690249024, -0.050322999289799365, -0.03498381158299509, -0.04510834491984031, -0.020756557415435452, -0.008586216473078964, 0.019460023496832093, -0.011390243827162572, -0.035363968639913146, -0.02298467454111135, -0.021317484153475137, -0.02011144589877202]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002289611392375032</v>
+        <v>0.0002289611392378163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8271785388416928</v>
+        <v>0.8271785388416915</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.899135446685879</v>
+        <v>0.4734446130500758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5557635018384144</v>
+        <v>-0.5557635018384197</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7961118740063521</v>
+        <v>0.7961118740063517</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4.088603609273277</v>
+        <v>4.088603609273276</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4941965824011549</v>
+        <v>0.4941965824011591</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7972885399031959</v>
+        <v>0.7972885399031949</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005774339871057947</v>
+        <v>-0.005774388391248587</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0409875451045271</v>
+        <v>0.0409875417320523</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08838953214719292</v>
+        <v>0.08838953223644098</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9082342203346515</v>
+        <v>0.9082342211145523</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005552486346230828</v>
+        <v>0.00555257294306689</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0408483729082158</v>
+        <v>0.04084837699572193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09888690436505052</v>
+        <v>0.098886905253906</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9083500676710241</v>
+        <v>0.9083500667694502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02090340650494344</v>
+        <v>-0.02090340768061906</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002388926979144996</v>
+        <v>-0.002388947753448994</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.03734933883024575</v>
+        <v>0.03734932635489268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1094880274470461</v>
+        <v>0.1094880095669077</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9091213877207215</v>
+        <v>0.9091214028460115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.04402215500150906</v>
+        <v>-0.0440221476230921</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7929683102293414</v>
+        <v>0.7929683103473262</v>
       </c>
     </row>
   </sheetData>
